--- a/Резы/Респа для ОЕ-51б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-51б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -107,10 +107,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -145,63 +145,63 @@
       <left style="thin"/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium"/>
+      <bottom style="thick"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -222,7 +222,7 @@
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -272,9 +272,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -648,7 +648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -708,7 +708,7 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
+          <t>ПН</t>
         </is>
       </c>
       <c r="B2" s="3" t="n">
@@ -721,174 +721,205 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>Производственный менеджмент: лекция (общ)</t>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="5" t="n"/>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>VIII</t>
-        </is>
+      <c r="F2" s="3" t="n">
+        <v>310</v>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>Букрина Е.В.</t>
+          <t>Мерзоцид Г.Ч.</t>
         </is>
       </c>
     </row>
     <row r="3" ht="34" customHeight="1">
       <c r="A3" s="2" t="inlineStr">
         <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
+        <is>
+          <t>Производственный менеджмент: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>VIII</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>Букрина Е.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
           <t>СР</t>
         </is>
       </c>
-      <c r="B3" s="6" t="n">
+      <c r="B4" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="C4" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D3" s="7" t="n"/>
-      <c r="F3" s="6" t="n"/>
-      <c r="G3" s="6" t="n"/>
-    </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="8" t="n"/>
-      <c r="B4" s="3" t="n">
+      <c r="D4" s="7" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+    </row>
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="8" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D4" s="4" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной предачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E4" s="9" t="n"/>
-      <c r="F4" s="3" t="n">
+      <c r="E5" s="9" t="n"/>
+      <c r="F5" s="3" t="n">
         <v>517</v>
       </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="D6" s="7" t="n"/>
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F6" s="10" t="n">
         <v>517</v>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Технология ширикополосного абонентского доступа: лекция (общ)</t>
         </is>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F7" s="3" t="n">
         <v>101</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E7" s="12" t="n"/>
-      <c r="F7" s="10" t="inlineStr">
+      <c r="E8" s="12" t="n"/>
+      <c r="F8" s="10" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="G7" s="10" t="inlineStr">
+      <c r="G8" s="10" t="inlineStr">
         <is>
           <t>Салифов И.И.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="3" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="13" t="n"/>
-      <c r="E8" s="14" t="n"/>
-      <c r="F8" s="8" t="n"/>
-      <c r="G8" s="8" t="n"/>
+      <c r="D9" s="13" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A3"/>
     <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -901,7 +932,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -973,351 +1004,384 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="n">
+          <t>ПН</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>Производственный менеджмент: лекция (общ)</t>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="15" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="16" t="n"/>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>Производственный менеджмент: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="17" t="n"/>
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="I2" s="10" t="inlineStr">
+      <c r="I3" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="17" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Тарасов Е.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="10" t="n">
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Тарасов Е.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="17" t="n"/>
+      <c r="H5" s="10" t="n">
         <v>331</v>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="18" t="n"/>
-      <c r="B5" s="6" t="n">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="18" t="n"/>
+      <c r="B6" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C6" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D5" s="7" t="n"/>
-      <c r="H5" s="6" t="n"/>
-      <c r="I5" s="6" t="n"/>
-    </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="3" t="n">
+      <c r="D6" s="7" t="n"/>
+      <c r="H6" s="6" t="n"/>
+      <c r="I6" s="6" t="n"/>
+    </row>
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D6" s="9" t="n"/>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="D7" s="9" t="n"/>
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии выокоскоростной передачи данных: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="F6" s="5" t="n"/>
-      <c r="G6" s="9" t="n"/>
-      <c r="H6" s="3" t="n">
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="9" t="n"/>
+      <c r="H7" s="3" t="n">
         <v>215</v>
       </c>
-      <c r="I6" s="3" t="inlineStr">
+      <c r="I7" s="3" t="inlineStr">
         <is>
           <t>Тарасов Е.С.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B7" s="10" t="n">
+      <c r="B8" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="10" t="inlineStr">
+      <c r="C8" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="11" t="inlineStr">
+      <c r="D8" s="11" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E7" s="15" t="n"/>
-      <c r="F7" s="15" t="n"/>
-      <c r="G7" s="16" t="n"/>
-      <c r="H7" s="10" t="n">
+      <c r="E8" s="16" t="n"/>
+      <c r="F8" s="16" t="n"/>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="10" t="n">
         <v>421</v>
       </c>
-      <c r="I7" s="10" t="inlineStr">
+      <c r="I8" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="3" t="n">
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: лекция (общ)</t>
         </is>
       </c>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="E9" s="5" t="n"/>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: ПР (общ)</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="3" t="inlineStr">
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>101, 301</t>
         </is>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="16" t="n"/>
-      <c r="H9" s="10" t="n">
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="17" t="n"/>
+      <c r="H10" s="10" t="n">
         <v>517</v>
       </c>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I10" s="10" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="18" t="n"/>
-      <c r="B10" s="10" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="18" t="n"/>
+      <c r="B11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Технология ширикополосного абонентского доступа: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="15" t="n"/>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="16" t="n"/>
-      <c r="H10" s="10" t="n">
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="17" t="n"/>
+      <c r="H11" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="I10" s="10" t="inlineStr">
+      <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D11" s="9" t="n"/>
-      <c r="E11" s="19" t="n"/>
-      <c r="F11" s="19" t="n"/>
-      <c r="G11" s="4" t="inlineStr">
+      <c r="D12" s="9" t="n"/>
+      <c r="E12" s="19" t="n"/>
+      <c r="F12" s="19" t="n"/>
+      <c r="G12" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H12" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="I11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="34" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="I12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="34" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="20" t="n"/>
-      <c r="F12" s="20" t="n"/>
-      <c r="G12" s="12" t="n"/>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="E13" s="20" t="n"/>
+      <c r="F13" s="20" t="n"/>
+      <c r="G13" s="12" t="n"/>
+      <c r="H13" s="10" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Салифов И.И.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="8" t="n"/>
-      <c r="B13" s="3" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="8" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="inlineStr">
+      <c r="C14" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="13" t="n"/>
-      <c r="E13" s="19" t="n"/>
-      <c r="F13" s="19" t="n"/>
-      <c r="G13" s="14" t="n"/>
-      <c r="H13" s="8" t="n"/>
-      <c r="I13" s="8" t="n"/>
+      <c r="D14" s="13" t="n"/>
+      <c r="E14" s="19" t="n"/>
+      <c r="F14" s="19" t="n"/>
+      <c r="G14" s="14" t="n"/>
+      <c r="H14" s="8" t="n"/>
+      <c r="I14" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1329,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1401,385 +1465,418 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>ВТ</t>
-        </is>
-      </c>
-      <c r="B2" s="10" t="n">
+          <t>ПН</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
-        <is>
-          <t>Производственный менеджмент: лекция (общ)</t>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
         </is>
       </c>
       <c r="E2" s="15" t="n"/>
       <c r="F2" s="15" t="n"/>
-      <c r="G2" s="16" t="n"/>
-      <c r="H2" s="10" t="inlineStr">
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>ВТ</t>
+        </is>
+      </c>
+      <c r="B3" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D3" s="11" t="inlineStr">
+        <is>
+          <t>Производственный менеджмент: лекция (общ)</t>
+        </is>
+      </c>
+      <c r="E3" s="16" t="n"/>
+      <c r="F3" s="16" t="n"/>
+      <c r="G3" s="17" t="n"/>
+      <c r="H3" s="10" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="I2" s="10" t="inlineStr">
+      <c r="I3" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="E3" s="17" t="n"/>
-      <c r="F3" s="17" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>Тарасов Е.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B4" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="10" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D4" s="11" t="inlineStr">
-        <is>
-          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
       <c r="E4" s="15" t="n"/>
       <c r="F4" s="15" t="n"/>
-      <c r="G4" s="16" t="n"/>
-      <c r="H4" s="10" t="n">
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="3" t="n">
+        <v>215</v>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>Тарасов Е.С.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="34" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D5" s="11" t="inlineStr">
+        <is>
+          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="n"/>
+      <c r="F5" s="16" t="n"/>
+      <c r="G5" s="17" t="n"/>
+      <c r="H5" s="10" t="n">
         <v>331</v>
       </c>
-      <c r="I4" s="10" t="inlineStr">
+      <c r="I5" s="10" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="34" customHeight="1">
-      <c r="A5" s="8" t="n"/>
-      <c r="B5" s="3" t="n">
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D5" s="9" t="n"/>
-      <c r="E5" s="19" t="n"/>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="D6" s="9" t="n"/>
+      <c r="E6" s="19" t="n"/>
+      <c r="F6" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной предачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="G5" s="9" t="n"/>
-      <c r="H5" s="3" t="n">
+      <c r="G6" s="9" t="n"/>
+      <c r="H6" s="3" t="n">
         <v>517</v>
       </c>
-      <c r="I5" s="8" t="n"/>
-    </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
+      <c r="I6" s="8" t="n"/>
+    </row>
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B6" s="10" t="n">
+      <c r="B7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="10" t="inlineStr">
+      <c r="C7" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D6" s="11" t="inlineStr">
+      <c r="D7" s="11" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E6" s="15" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="16" t="n"/>
-      <c r="H6" s="10" t="n">
+      <c r="E7" s="16" t="n"/>
+      <c r="F7" s="16" t="n"/>
+      <c r="G7" s="17" t="n"/>
+      <c r="H7" s="10" t="n">
         <v>421</v>
       </c>
-      <c r="I6" s="10" t="inlineStr">
+      <c r="I7" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="18" t="n"/>
-      <c r="B7" s="6" t="n">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="18" t="n"/>
+      <c r="B8" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="H7" s="6" t="n"/>
-      <c r="I7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="8" t="n"/>
-      <c r="B8" s="3" t="n">
+      <c r="D8" s="7" t="n"/>
+      <c r="H8" s="6" t="n"/>
+      <c r="I8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="8" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D8" s="9" t="n"/>
-      <c r="E8" s="19" t="n"/>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="D9" s="9" t="n"/>
+      <c r="E9" s="19" t="n"/>
+      <c r="F9" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
-      <c r="G8" s="9" t="n"/>
-      <c r="H8" s="3" t="n">
+      <c r="G9" s="9" t="n"/>
+      <c r="H9" s="3" t="n">
         <v>331</v>
       </c>
-      <c r="I8" s="3" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B9" s="10" t="n">
+      <c r="B10" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="inlineStr">
+      <c r="C10" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D9" s="11" t="inlineStr">
+      <c r="D10" s="11" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: лекция (общ)</t>
         </is>
       </c>
-      <c r="E9" s="15" t="n"/>
-      <c r="F9" s="15" t="n"/>
-      <c r="G9" s="16" t="n"/>
-      <c r="H9" s="10" t="n">
+      <c r="E10" s="16" t="n"/>
+      <c r="F10" s="16" t="n"/>
+      <c r="G10" s="17" t="n"/>
+      <c r="H10" s="10" t="n">
         <v>517</v>
       </c>
-      <c r="I9" s="10" t="inlineStr">
+      <c r="I10" s="10" t="inlineStr">
         <is>
           <t>Будылдина Н.В.</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="18" t="n"/>
-      <c r="B10" s="10" t="n">
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="18" t="n"/>
+      <c r="B11" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Технология ширикополосного абонентского доступа: лекция (общ)</t>
         </is>
       </c>
-      <c r="E10" s="15" t="n"/>
-      <c r="F10" s="15" t="n"/>
-      <c r="G10" s="16" t="n"/>
-      <c r="H10" s="10" t="n">
+      <c r="E11" s="16" t="n"/>
+      <c r="F11" s="16" t="n"/>
+      <c r="G11" s="17" t="n"/>
+      <c r="H11" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="I10" s="10" t="inlineStr">
+      <c r="I11" s="10" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E11" s="17" t="n"/>
-      <c r="F11" s="17" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="3" t="n">
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="15" t="n"/>
+      <c r="G12" s="5" t="n"/>
+      <c r="H12" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="I11" s="8" t="n"/>
-    </row>
-    <row r="12" ht="51" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="I12" s="8" t="n"/>
+    </row>
+    <row r="13" ht="51" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B12" s="10" t="n">
+      <c r="B13" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="inlineStr">
+      <c r="C13" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D12" s="11" t="inlineStr">
+      <c r="D13" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: лекция (общ)</t>
         </is>
       </c>
-      <c r="E12" s="11" t="inlineStr">
+      <c r="E13" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="F12" s="15" t="n"/>
-      <c r="G12" s="16" t="n"/>
-      <c r="H12" s="10" t="inlineStr">
+      <c r="F13" s="16" t="n"/>
+      <c r="G13" s="17" t="n"/>
+      <c r="H13" s="10" t="inlineStr">
         <is>
           <t>VIII
 401</t>
         </is>
       </c>
-      <c r="I12" s="10" t="inlineStr">
+      <c r="I13" s="10" t="inlineStr">
         <is>
           <t>Салифов И.И.
 Сухоева К.С.</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="34" customHeight="1">
-      <c r="A13" s="18" t="n"/>
-      <c r="B13" s="10" t="n">
+    <row r="14" ht="34" customHeight="1">
+      <c r="A14" s="18" t="n"/>
+      <c r="B14" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C13" s="10" t="inlineStr">
+      <c r="C14" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D13" s="7" t="n"/>
-      <c r="E13" s="11" t="inlineStr">
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="F13" s="11" t="inlineStr">
+      <c r="F14" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G13" s="16" t="n"/>
-      <c r="H13" s="10" t="n">
+      <c r="G14" s="17" t="n"/>
+      <c r="H14" s="10" t="n">
         <v>401</v>
       </c>
-      <c r="I13" s="10" t="inlineStr">
+      <c r="I14" s="10" t="inlineStr">
         <is>
           <t>Сухоева К.С.</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="34" customHeight="1">
-      <c r="A14" s="8" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="15" ht="34" customHeight="1">
+      <c r="A15" s="8" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C14" s="3" t="inlineStr">
+      <c r="C15" s="3" t="inlineStr">
         <is>
           <t>12:00 - 13:40</t>
         </is>
       </c>
-      <c r="D14" s="9" t="n"/>
-      <c r="E14" s="19" t="n"/>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="D15" s="9" t="n"/>
+      <c r="E15" s="19" t="n"/>
+      <c r="F15" s="4" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="G14" s="9" t="n"/>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
+      <c r="G15" s="9" t="n"/>
+      <c r="H15" s="8" t="n"/>
+      <c r="I15" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="24">
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D4:G4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:E6"/>
     <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:G10"/>
     <mergeCell ref="D11:G11"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1791,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
@@ -1851,278 +1948,309 @@
     <row r="2" ht="34" customHeight="1">
       <c r="A2" s="2" t="inlineStr">
         <is>
+          <t>ПН</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>НИРС, консультации по ВКР: рейд (общ)</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="n"/>
+      <c r="F2" s="3" t="n">
+        <v>310</v>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Мерзоцид Г.Ч.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="34" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
           <t>ВТ</t>
         </is>
       </c>
-      <c r="B2" s="10" t="n">
+      <c r="B3" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="inlineStr">
+      <c r="C3" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D2" s="11" t="inlineStr">
+      <c r="D3" s="11" t="inlineStr">
         <is>
           <t>Производственный менеджмент: лекция (общ)</t>
         </is>
       </c>
-      <c r="E2" s="16" t="n"/>
-      <c r="F2" s="10" t="inlineStr">
+      <c r="E3" s="17" t="n"/>
+      <c r="F3" s="10" t="inlineStr">
         <is>
           <t>VIII</t>
         </is>
       </c>
-      <c r="G2" s="10" t="inlineStr">
+      <c r="G3" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="34" customHeight="1">
-      <c r="A3" s="8" t="n"/>
-      <c r="B3" s="3" t="n">
+    <row r="4" ht="34" customHeight="1">
+      <c r="A4" s="8" t="n"/>
+      <c r="B4" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D3" s="4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>Сетевые технологии высокоскоростной передачи данных: ЛБ (общ)</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n"/>
-      <c r="F3" s="3" t="n">
-        <v>215</v>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>Тарасов Е.С.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="34" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>СР</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>08:30 - 10:05</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
         </is>
       </c>
       <c r="E4" s="5" t="n"/>
       <c r="F4" s="3" t="n">
-        <v>331</v>
+        <v>215</v>
       </c>
       <c r="G4" s="3" t="inlineStr">
         <is>
-          <t>Будылдина Н.В.</t>
+          <t>Тарасов Е.С.</t>
         </is>
       </c>
     </row>
     <row r="5" ht="34" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
         <is>
+          <t>СР</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>08:30 - 10:05</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Сетевые технологии высокоскоростной передачи данных: ПР (общ)</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="n"/>
+      <c r="F5" s="3" t="n">
+        <v>331</v>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Будылдина Н.В.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="34" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
           <t>ЧТ</t>
         </is>
       </c>
-      <c r="B5" s="10" t="n">
+      <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="inlineStr">
+      <c r="C6" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D5" s="11" t="inlineStr">
+      <c r="D6" s="11" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ПР (общ)</t>
         </is>
       </c>
-      <c r="E5" s="11" t="inlineStr">
+      <c r="E6" s="11" t="inlineStr">
         <is>
           <t>Производственный менеджмент: ДИФ (общ)</t>
         </is>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F6" s="10" t="n">
         <v>421</v>
       </c>
-      <c r="G5" s="10" t="inlineStr">
+      <c r="G6" s="10" t="inlineStr">
         <is>
           <t>Букрина Е.В.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="34" customHeight="1">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="7" ht="34" customHeight="1">
+      <c r="A7" s="8" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="inlineStr">
+      <c r="C7" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: ПР (общ)</t>
         </is>
       </c>
-      <c r="E6" s="9" t="n"/>
-      <c r="F6" s="3" t="n">
+      <c r="E7" s="9" t="n"/>
+      <c r="F7" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="G6" s="3" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="34" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
+    <row r="8" ht="34" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>ПТ</t>
         </is>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B8" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="C8" s="6" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D7" s="7" t="n"/>
-      <c r="F7" s="6" t="n"/>
-      <c r="G7" s="6" t="n"/>
-    </row>
-    <row r="8" ht="34" customHeight="1">
-      <c r="A8" s="18" t="n"/>
-      <c r="B8" s="10" t="n">
+      <c r="D8" s="7" t="n"/>
+      <c r="F8" s="6" t="n"/>
+      <c r="G8" s="6" t="n"/>
+    </row>
+    <row r="9" ht="34" customHeight="1">
+      <c r="A9" s="18" t="n"/>
+      <c r="B9" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="C8" s="10" t="inlineStr">
+      <c r="C9" s="10" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D8" s="11" t="inlineStr">
+      <c r="D9" s="11" t="inlineStr">
         <is>
           <t>Технология ширикополосного абонентского доступа: лекция (общ)</t>
         </is>
       </c>
-      <c r="E8" s="16" t="n"/>
-      <c r="F8" s="10" t="n">
+      <c r="E9" s="17" t="n"/>
+      <c r="F9" s="10" t="n">
         <v>101</v>
       </c>
-      <c r="G8" s="10" t="inlineStr">
+      <c r="G9" s="10" t="inlineStr">
         <is>
           <t>Шестаков И.И.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="34" customHeight="1">
-      <c r="A9" s="8" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="10" ht="34" customHeight="1">
+      <c r="A10" s="8" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="3" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>12:35 - 14:10</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>Технология широкополосного абонентского доступа: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E9" s="9" t="n"/>
-      <c r="F9" s="3" t="n">
+      <c r="E10" s="9" t="n"/>
+      <c r="F10" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="G9" s="8" t="n"/>
-    </row>
-    <row r="10" ht="34" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="G10" s="8" t="n"/>
+    </row>
+    <row r="11" ht="34" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>СБ</t>
         </is>
       </c>
-      <c r="B10" s="10" t="n">
+      <c r="B11" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="10" t="inlineStr">
+      <c r="C11" s="10" t="inlineStr">
         <is>
           <t>08:30 - 10:05</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
+      <c r="D11" s="11" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ПР (общ)</t>
         </is>
       </c>
-      <c r="E10" s="16" t="n"/>
-      <c r="F10" s="10" t="n">
+      <c r="E11" s="17" t="n"/>
+      <c r="F11" s="10" t="n">
         <v>401</v>
       </c>
-      <c r="G10" s="10" t="inlineStr">
+      <c r="G11" s="10" t="inlineStr">
         <is>
           <t>Сухоева К.С.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="34" customHeight="1">
-      <c r="A11" s="8" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="12" ht="34" customHeight="1">
+      <c r="A12" s="8" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="3" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>10:15 - 11:50</t>
         </is>
       </c>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ЛБ (общ)</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E12" s="4" t="inlineStr">
         <is>
           <t>Оптические мультисервисные сети: ДИФ (общ)</t>
         </is>
       </c>
-      <c r="F11" s="8" t="n"/>
-      <c r="G11" s="8" t="n"/>
+      <c r="F12" s="8" t="n"/>
+      <c r="G12" s="8" t="n"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="16">
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A4"/>
-    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A5"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
